--- a/final-project/virtual-cards/model1-data (Autosaved).xlsx
+++ b/final-project/virtual-cards/model1-data (Autosaved).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="265">
   <si>
     <t>Feature</t>
   </si>
@@ -553,10 +557,6 @@
 Email: kinztuka@yahoo.com
 new password: Pass123456
 </t>
-  </si>
-  <si>
-    <t>Multiple users can log in with on the same device 
-and acces their own cards</t>
   </si>
   <si>
     <t>Check if changing password is available if the user forgets the password</t>
@@ -740,8 +740,246 @@
     </r>
   </si>
   <si>
-    <t>DM
-1001cosmetice.ro</t>
+    <t>Multiple users can log in on the same device 
+and acces their own cards</t>
+  </si>
+  <si>
+    <t>Installing</t>
+  </si>
+  <si>
+    <t>Choose language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Romana</t>
+  </si>
+  <si>
+    <t>Choose the behavior of Choosing Language feature</t>
+  </si>
+  <si>
+    <t>error message: please select a language</t>
+  </si>
+  <si>
+    <t>The content is in English</t>
+  </si>
+  <si>
+    <t>The content is in Romanian</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>date of birth</t>
+  </si>
+  <si>
+    <t>Profi</t>
+  </si>
+  <si>
+    <t>A
+#
+5</t>
+  </si>
+  <si>
+    <t>Enter less one char for the user's name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: invalid characters for  name.
+The name is not added.
+</t>
+  </si>
+  <si>
+    <t>Check the CNP field by entering valid cnp</t>
+  </si>
+  <si>
+    <t>Name is accepted</t>
+  </si>
+  <si>
+    <t>Popescu</t>
+  </si>
+  <si>
+    <t>c
+-
+3</t>
+  </si>
+  <si>
+    <t>Check the CNP field by entering invalid cnp</t>
+  </si>
+  <si>
+    <t>2850912080104</t>
+  </si>
+  <si>
+    <t>285091208010</t>
+  </si>
+  <si>
+    <t>error: invalid cnp</t>
+  </si>
+  <si>
+    <t>CNP is accepted</t>
+  </si>
+  <si>
+    <t>Check "strada" field by entering one single char</t>
+  </si>
+  <si>
+    <t>Check "strada" field by entering valid address</t>
+  </si>
+  <si>
+    <t>Lunga</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Check "Number" field by entering valid number</t>
+  </si>
+  <si>
+    <t>Check "Number" field by entering random alphanumeric char</t>
+  </si>
+  <si>
+    <t>Afr6556</t>
+  </si>
+  <si>
+    <t>Enter a very big number</t>
+  </si>
+  <si>
+    <t>Check City dropdown list by choosing one city from the list</t>
+  </si>
+  <si>
+    <t>Brasov</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Personal identification Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street </t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>City / Country/ district</t>
+  </si>
+  <si>
+    <t>Check  Country/ district field entering valid district</t>
+  </si>
+  <si>
+    <t>Check  Country/ district field entering invalid district</t>
+  </si>
+  <si>
+    <t>Check  Country/ district field entering incorrect district</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Braila</t>
+  </si>
+  <si>
+    <t>Mobile number</t>
+  </si>
+  <si>
+    <t>Enter valid number</t>
+  </si>
+  <si>
+    <t>0741587193</t>
+  </si>
+  <si>
+    <t>15475a3'</t>
+  </si>
+  <si>
+    <t>Card is added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Ana-Maria 
+Last Name: Popescu
+CNP: 2850912080104
+Street: Lunga
+Number:3
+City: Brasov
+District: Brasov
+Phone:0741587192
+Email: corinaradu12@gmail.com
+Check agreement
+</t>
+  </si>
+  <si>
+    <t>Name: Ana-Maria 
+Last Name: Popescu
+CNP: 2850912080104
+Street: Lunga
+Number:3
+City: Brasov
+District: Brasov
+Phone:0741587192
+Email: corinaradu12@gmail.com
+Check agreement</t>
+  </si>
+  <si>
+    <t>Name: Ana-Maria 
+Last Name: Popescu
+CNP: 2850912080104
+Street: Lunga
+Number:3
+City: Brasov
+District: Brasov
+Phone:0741587192
+Email: corinaradu12@gmail.com
+Uncheck agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The card shoul be added successfully
+</t>
+  </si>
+  <si>
+    <t>Name: Ana-Maria 
+Last Name: Popescu
+CNP: 2850912080104
+Street: Lunga
+Number: Leave this field empty
+City: Brasov
+District: Brasov
+Phone:0741587192
+Email: corinaradu12@gmail.com
+Check agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory symbol (*) should highlight the required fields. 
+An worning message should  appear
+</t>
+  </si>
+  <si>
+    <t>Edit card</t>
+  </si>
+  <si>
+    <t>delete card</t>
+  </si>
+  <si>
+    <t>read card</t>
+  </si>
+  <si>
+    <t>Remove all char</t>
+  </si>
+  <si>
+    <t>The name is updated</t>
+  </si>
+  <si>
+    <t>Error: the card must have a name</t>
+  </si>
+  <si>
+    <t>Edit the name of the card by adding/ removing an extra char</t>
+  </si>
+  <si>
+    <t>ProfiT / Prof</t>
   </si>
 </sst>
 </file>
@@ -830,12 +1068,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -843,6 +1075,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -941,10 +1179,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -956,8 +1194,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -969,6 +1222,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1017,7 +1273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1052,7 +1308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1261,28 +1517,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H84"/>
+  <dimension ref="B1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1299,18 +1555,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
@@ -1325,7 +1581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>117</v>
       </c>
@@ -1336,7 +1592,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1347,7 +1603,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1358,9 +1614,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
@@ -1372,7 +1628,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="13" t="s">
         <v>91</v>
       </c>
@@ -1383,7 +1639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
@@ -1394,7 +1650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="13" t="s">
         <v>93</v>
       </c>
@@ -1405,7 +1661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>99</v>
       </c>
@@ -1416,7 +1672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="13" t="s">
         <v>90</v>
       </c>
@@ -1427,9 +1683,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>113</v>
@@ -1441,7 +1697,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1452,7 +1708,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>104</v>
       </c>
@@ -1463,7 +1719,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
@@ -1474,7 +1730,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>111</v>
       </c>
@@ -1485,7 +1741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
@@ -1496,9 +1752,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>139</v>
@@ -1510,7 +1766,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
@@ -1521,9 +1777,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>143</v>
@@ -1535,7 +1791,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
@@ -1546,9 +1802,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>148</v>
@@ -1560,7 +1816,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>149</v>
       </c>
@@ -1571,9 +1827,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>85</v>
@@ -1585,7 +1841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
@@ -1596,17 +1852,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
       <c r="E28" s="22"/>
       <c r="G28" s="23"/>
     </row>
-    <row r="29" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -1614,9 +1870,9 @@
       <c r="F29" s="36"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>123</v>
@@ -1631,7 +1887,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>129</v>
       </c>
@@ -1642,7 +1898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>132</v>
       </c>
@@ -1653,7 +1909,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>133</v>
       </c>
@@ -1664,7 +1920,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>136</v>
       </c>
@@ -1675,9 +1931,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>153</v>
@@ -1692,7 +1948,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>154</v>
       </c>
@@ -1701,26 +1957,26 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>156</v>
@@ -1729,17 +1985,17 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>158</v>
@@ -1751,9 +2007,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>169</v>
@@ -1765,9 +2021,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>168</v>
@@ -1776,38 +2032,38 @@
         <v>170</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="E43" s="22"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B45" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>162</v>
       </c>
@@ -1818,7 +2074,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>165</v>
       </c>
@@ -1829,209 +2085,521 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C57"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C62"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" s="40"/>
+      <c r="C52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="40"/>
+      <c r="C53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="19"/>
+      <c r="C55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B56" s="19"/>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="19"/>
+      <c r="C58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="19"/>
+      <c r="C60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B61" s="19"/>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="19"/>
+      <c r="C63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="19"/>
+      <c r="C64" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="26">
+        <v>6984</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="26"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="19"/>
+      <c r="C66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="29"/>
       <c r="E66" s="27"/>
       <c r="F66" s="26"/>
       <c r="G66" s="28"/>
       <c r="H66" s="26"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="19"/>
+      <c r="C67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>244</v>
+      </c>
       <c r="E67" s="27"/>
       <c r="F67" s="26"/>
       <c r="G67" s="28"/>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="29"/>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="19"/>
+      <c r="C68" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>245</v>
+      </c>
       <c r="E68" s="27"/>
       <c r="F68" s="26"/>
       <c r="G68" s="28"/>
       <c r="H68" s="26"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="29"/>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>248</v>
+      </c>
       <c r="E69" s="27"/>
       <c r="F69" s="26"/>
       <c r="G69" s="28"/>
       <c r="H69" s="26"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="39"/>
+      <c r="C70" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>249</v>
+      </c>
       <c r="E70" s="27"/>
       <c r="F70" s="26"/>
       <c r="G70" s="28"/>
       <c r="H70" s="26"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="27"/>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="F71" s="26"/>
       <c r="G71" s="28"/>
       <c r="H71" s="26"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="27"/>
+    <row r="72" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B72" s="19"/>
+      <c r="C72" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="F72" s="26"/>
       <c r="G72" s="28"/>
       <c r="H72" s="26"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="27"/>
+    <row r="73" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B73" s="19"/>
+      <c r="C73" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="F73" s="26"/>
       <c r="G73" s="28"/>
       <c r="H73" s="26"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="27"/>
+    <row r="74" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B74" s="19"/>
+      <c r="C74" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="F74" s="26"/>
       <c r="G74" s="28"/>
       <c r="H74" s="26"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="27"/>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="41"/>
+      <c r="C75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="F75" s="26"/>
       <c r="G75" s="28"/>
       <c r="H75" s="26"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="27"/>
+    <row r="76" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B76" s="41"/>
+      <c r="C76" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="F76" s="26"/>
       <c r="G76" s="28"/>
       <c r="H76" s="26"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="42" t="s">
+        <v>210</v>
+      </c>
       <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="27"/>
       <c r="F77" s="26"/>
       <c r="G77" s="28"/>
       <c r="H77" s="26"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="27"/>
+    <row r="78" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B78" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>250</v>
+      </c>
       <c r="F78" s="26"/>
       <c r="G78" s="28"/>
       <c r="H78" s="26"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="27"/>
+    <row r="79" spans="2:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="F79" s="26"/>
       <c r="G79" s="28"/>
       <c r="H79" s="26"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="27"/>
+    <row r="80" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B80" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="F80" s="26"/>
       <c r="G80" s="28"/>
       <c r="H80" s="26"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="27"/>
+    <row r="81" spans="2:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="F81" s="26"/>
       <c r="G81" s="28"/>
       <c r="H81" s="26"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="144" x14ac:dyDescent="0.3">
       <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="27"/>
+      <c r="C82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="F82" s="26"/>
       <c r="G82" s="28"/>
       <c r="H82" s="26"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="26"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="26"/>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C84" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C104" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="27"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C106" s="26"/>
+      <c r="D106" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="26"/>
+      <c r="D107" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2043,9 +2611,12 @@
     <hyperlink ref="D10" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D74" r:id="rId4"/>
+    <hyperlink ref="D75" r:id="rId5"/>
+    <hyperlink ref="D71" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2053,30 +2624,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="16.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="18.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2087,7 +2658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -2098,7 +2669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +2680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2138,12 +2709,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2151,7 +2722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2159,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2167,7 +2738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2193,12 +2764,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -2248,32 +2819,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
@@ -2281,27 +2852,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>51</v>
       </c>
@@ -2320,13 +2891,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2334,7 +2905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2342,7 +2913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2358,10 +2929,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2369,42 +2940,42 @@
         <v>0.39513888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>0.66597222222222219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>0.81319444444444444</v>
       </c>
@@ -2423,16 +2994,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -2443,7 +3014,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -2454,7 +3025,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -2463,7 +3034,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2476,14 +3047,14 @@
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
@@ -2491,7 +3062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -2499,7 +3070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -2508,13 +3079,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
@@ -2522,7 +3093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2533,7 +3104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
@@ -2541,17 +3112,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2559,7 +3130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2567,7 +3138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2575,7 +3146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2583,12 +3154,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2596,27 +3167,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>

--- a/final-project/virtual-cards/model1-data (Autosaved).xlsx
+++ b/final-project/virtual-cards/model1-data (Autosaved).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="324">
   <si>
     <t>Feature</t>
   </si>
@@ -822,12 +817,6 @@
     <t>CNP is accepted</t>
   </si>
   <si>
-    <t>Check "strada" field by entering one single char</t>
-  </si>
-  <si>
-    <t>Check "strada" field by entering valid address</t>
-  </si>
-  <si>
     <t>Lunga</t>
   </si>
   <si>
@@ -961,12 +950,6 @@
     <t>Edit card</t>
   </si>
   <si>
-    <t>delete card</t>
-  </si>
-  <si>
-    <t>read card</t>
-  </si>
-  <si>
     <t>Remove all char</t>
   </si>
   <si>
@@ -980,18 +963,225 @@
   </si>
   <si>
     <t>ProfiT / Prof</t>
+  </si>
+  <si>
+    <t>Check Street" field by entering valid address</t>
+  </si>
+  <si>
+    <t>Check "Street" field by entering one single char</t>
+  </si>
+  <si>
+    <t>Adress is accepted</t>
+  </si>
+  <si>
+    <t>Message: invalid characters for  address.
+The address is not added.</t>
+  </si>
+  <si>
+    <t>No street is accepted</t>
+  </si>
+  <si>
+    <t>Message: invalid characters for  street adress
+The address is not added.</t>
+  </si>
+  <si>
+    <t>City is accepted</t>
+  </si>
+  <si>
+    <t>District is accepted</t>
+  </si>
+  <si>
+    <t>Message: invalid characters for  district
+The address is not added.</t>
+  </si>
+  <si>
+    <t>Message: incorrect  district
+The district is not added.</t>
+  </si>
+  <si>
+    <t>Phone number is added</t>
+  </si>
+  <si>
+    <t>Enter invalid number</t>
+  </si>
+  <si>
+    <t>Message: invalid characters for  phone
+Phone number is not added.</t>
+  </si>
+  <si>
+    <t>Delete card</t>
+  </si>
+  <si>
+    <t>Delete promotional card</t>
+  </si>
+  <si>
+    <t>Sensiblue</t>
+  </si>
+  <si>
+    <t>Delete phisical scaned card</t>
+  </si>
+  <si>
+    <t>Read card</t>
+  </si>
+  <si>
+    <t>Check if the virtual cards are recognise by the card reader</t>
+  </si>
+  <si>
+    <t>Sensiblue
+Profi
+Sephora</t>
+  </si>
+  <si>
+    <t>Smoke test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add card </t>
+  </si>
+  <si>
+    <t>Remove card</t>
+  </si>
+  <si>
+    <t>Check if the application can be downloaded from the Store</t>
+  </si>
+  <si>
+    <t>Create new account</t>
+  </si>
+  <si>
+    <t>Surname and first name: Ana Popescu
+Email: corinaradu12@gmail.com
+Password: Pass1234
+Confirm Password: Pass1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the user can register </t>
+  </si>
+  <si>
+    <t>Check if the user can log in</t>
+  </si>
+  <si>
+    <t>Check the mandatory fields by leaving them empty</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Check the login functionality by leaving password field empty</t>
+  </si>
+  <si>
+    <t>Add existing plastic card by scanning the barcode</t>
+  </si>
+  <si>
+    <t>Add virtual card by filling in the form</t>
+  </si>
+  <si>
+    <t>Check if the user can remove the cards</t>
+  </si>
+  <si>
+    <t>User Experience</t>
+  </si>
+  <si>
+    <t>Uninstallation</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Check the main menu, style, boxes, links, exit application</t>
+  </si>
+  <si>
+    <t>Verify the behavior of applicationwhen there is Network problemand user is performing operationsfor data call</t>
+  </si>
+  <si>
+    <t>Verify that user is able toestablish data call when Networkis back in action.</t>
+  </si>
+  <si>
+    <t>User should be able to establish datacall when Network is back in action</t>
+  </si>
+  <si>
+    <t>User should get proper error message like “Network error. Pleasetry after some time”</t>
+  </si>
+  <si>
+    <t>Verify that user is able toestablish data call when Networkis back in action</t>
+  </si>
+  <si>
+    <t>Verify that user can accept Voicecall at the time when application isrunning and can resume back inapplication from the same point.</t>
+  </si>
+  <si>
+    <t>User should be able to accept Voicecall at the time when application isrunning and can resume back inapplication from the same point.</t>
+  </si>
+  <si>
+    <t>Verify that user can reject theVoice call at the time whenapplication is running and canresume back in application fromthe same point</t>
+  </si>
+  <si>
+    <t>User should be able to reject theVoice call at the time whenapplication is running and can resumeback in application from the samepoint.</t>
+  </si>
+  <si>
+    <t>Verify that user can establish aVoice call in case whenapplication data call is running inbackground.</t>
+  </si>
+  <si>
+    <t>User should be able to establish aVoice call in case when applicationdata call is running in background.</t>
+  </si>
+  <si>
+    <t>Verify that user can get SMS alertwhen application is running.</t>
+  </si>
+  <si>
+    <t>User should be able to get SMS alertwhen application is running.</t>
+  </si>
+  <si>
+    <t>Verify that user can resume backfrom the same point after readingthe SMS.</t>
+  </si>
+  <si>
+    <t>User should be able to resume backfrom the same point after reading theSMS.</t>
+  </si>
+  <si>
+    <t>Verify that application logo with Application Name is present inapplication manager and user canselect it.</t>
+  </si>
+  <si>
+    <t>Application logo with Applicationname should be present in applicationmanager and user can select it.</t>
+  </si>
+  <si>
+    <t>Verify that clear key shouldnavigate the user to previousscreen</t>
+  </si>
+  <si>
+    <t>Clear key should navigate the user toprevious screen.</t>
+  </si>
+  <si>
+    <t>Verify that application does notconsume battery excessively.</t>
+  </si>
+  <si>
+    <t>The application should not consumebattery excessively.</t>
+  </si>
+  <si>
+    <t>1. Find the application icon and</t>
+  </si>
+  <si>
+    <t>select it 2. “Press a button” on the</t>
+  </si>
+  <si>
+    <t>device to launch the app.3.Observe the application launchIn the timeline defined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,6 +1236,27 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1096,17 +1307,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1115,39 +1326,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1157,10 +1364,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1170,47 +1374,76 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1273,7 +1506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1308,7 +1541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1517,1095 +1750,1300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H107"/>
+  <dimension ref="B1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomRight" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="38" t="s">
         <v>94</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>12345678</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="17" t="s">
         <v>125</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="E28" s="22"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
+    <row r="28" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="20"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
         <v>189</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>128</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
+    <row r="37" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B38" s="17" t="s">
+    <row r="38" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="17" t="s">
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
+    <row r="42" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="20"/>
-      <c r="E43" s="22"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36" t="s">
+    <row r="43" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="20"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="35" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B45" s="30" t="s">
         <v>198</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="35" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="30" t="s">
         <v>199</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="39" t="s">
-        <v>235</v>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="40"/>
+    <row r="52" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="32"/>
       <c r="C52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
+    <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="32"/>
       <c r="C53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="39" t="s">
-        <v>236</v>
+      <c r="E53" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
+    <row r="55" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="17"/>
       <c r="C55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
+    <row r="56" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="17"/>
       <c r="C56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="39" t="s">
-        <v>237</v>
+      <c r="E56" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="17"/>
       <c r="C58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="39" t="s">
-        <v>238</v>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="17"/>
+      <c r="C60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
-      <c r="C60" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
+      <c r="E60" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="17"/>
       <c r="C61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="39" t="s">
+      <c r="E61" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" s="17">
+        <v>30</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="17"/>
+      <c r="C63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="17"/>
+      <c r="C64" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" s="43">
+        <v>6984000</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="17"/>
+      <c r="C66" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="19"/>
-      <c r="C63" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="19"/>
-      <c r="C64" s="26" t="s">
+      <c r="D66" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="26">
-        <v>6984</v>
-      </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="26"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="39" t="s">
+      <c r="E66" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="17"/>
+      <c r="C67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="26"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
-      <c r="C66" s="1" t="s">
+      <c r="D67" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="17"/>
+      <c r="C68" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="26"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
-      <c r="C67" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="29" t="s">
+      <c r="D68" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="26"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
-      <c r="C68" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" s="26" t="s">
+      <c r="C69" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="26"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="39" t="s">
+      <c r="D69" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="E69" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="31"/>
+      <c r="C70" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="D69" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="26"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="39"/>
-      <c r="C70" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="26"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="39" t="s">
+      <c r="E70" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
         <v>209</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="26"/>
-    </row>
-    <row r="72" spans="2:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="B72" s="19"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B72" s="17"/>
       <c r="C72" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="26"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="B73" s="19"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B73" s="17"/>
       <c r="C73" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="26"/>
-    </row>
-    <row r="74" spans="2:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="B74" s="19"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B74" s="17"/>
       <c r="C74" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="26"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="41"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="33"/>
       <c r="C75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="26"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="B76" s="41"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B76" s="33"/>
       <c r="C76" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="38" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="42" t="s">
+      <c r="F76" s="23"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="26"/>
-    </row>
-    <row r="78" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B78" s="17" t="s">
+      <c r="C77" s="23"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
         <v>185</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="26"/>
-    </row>
-    <row r="79" spans="2:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="D78" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" s="23"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="17" t="s">
+      <c r="D79" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="26"/>
-    </row>
-    <row r="80" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B80" s="17" t="s">
+      <c r="F79" s="23"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
         <v>187</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="26"/>
-    </row>
-    <row r="81" spans="2:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="F80" s="23"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="26"/>
-    </row>
-    <row r="82" spans="2:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="B82" s="25"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B82" s="22"/>
       <c r="C82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F82" s="23"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="C83" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="26"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C84" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E84" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C104" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="18"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="20"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="27"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="25" t="s">
+      <c r="D91" s="43"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C92" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D92" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E105" s="27" t="s">
+      <c r="E92" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C106" s="26"/>
-      <c r="D106" s="26" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="23"/>
+      <c r="D93" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E93" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C107" s="26"/>
-      <c r="D107" s="26" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="23"/>
+      <c r="D94" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="E94" s="24" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F111" s="46"/>
+    </row>
+    <row r="112" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="46"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="47"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B110:E110"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
@@ -2622,32 +3060,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I35"/>
+  <dimension ref="A4:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="16.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +3096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +3107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2680,7 +3118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2709,12 +3147,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2722,7 +3160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2730,7 +3168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2738,7 +3176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2764,12 +3202,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2777,7 +3215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2785,7 +3223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -2793,7 +3231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -2819,32 +3257,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
@@ -2852,29 +3290,131 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2891,13 +3431,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2905,7 +3445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2913,7 +3453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2921,7 +3461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2929,10 +3469,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2940,42 +3480,42 @@
         <v>0.39513888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>0.66597222222222219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>0.81319444444444444</v>
       </c>
@@ -2994,16 +3534,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -3014,7 +3554,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -3025,7 +3565,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -3034,7 +3574,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -3047,14 +3587,14 @@
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
@@ -3062,7 +3602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -3070,7 +3610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -3079,13 +3619,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
@@ -3093,7 +3633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
@@ -3104,7 +3644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
@@ -3112,17 +3652,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -3130,7 +3670,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -3138,7 +3678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -3146,7 +3686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -3154,12 +3694,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3167,27 +3707,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
